--- a/biology/Zoologie/Centrolene_medemi/Centrolene_medemi.xlsx
+++ b/biology/Zoologie/Centrolene_medemi/Centrolene_medemi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">"Centrolene" medemi
-"Centrolene" medemi est une espèce d'amphibiens de la famille des Centrolenidae[1]. Depuis la redéfinition du genre Centrolene, il est évident que C. medemi n'appartient pas à ce genre mais aucun autre genre n'a pour l'instant été proposé de manière formelle.
+"Centrolene" medemi est une espèce d'amphibiens de la famille des Centrolenidae. Depuis la redéfinition du genre Centrolene, il est évident que C. medemi n'appartient pas à ce genre mais aucun autre genre n'a pour l'instant été proposé de manière formelle.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre de 1 100 à 1 800 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre de 1 100 à 1 800 m d'altitude, :
 en Équateur dans la province de Napo sur le versant amazonien de la cordillère Orientale ;
 en Colombie dans les départements de Tolima et de Caquetá sur la cordillère Orientale.</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 26,1 mm[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 26,1 mm
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Federico Medem[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Federico Medem.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cochran &amp; Goin, 1970 : Frogs of Colombia. United States National Museum Bulletin, vol. 288, p. 1-655 (texte intégral).</t>
         </is>
